--- a/SampleApp.Test/模版/05自动初始化填充配置/Sample03_Result.xlsx
+++ b/SampleApp.Test/模版/05自动初始化填充配置/Sample03_Result.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F518E5A-D2ED-40FF-8DD7-94EEA1E17869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="10125" yWindow="3120" windowWidth="18675" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -13,14 +14,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
@@ -28,7 +28,7 @@
     <t>工号</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -53,7 +53,7 @@
     <t>二级部门</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -132,9 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +218,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.099978637043366805"/>
+        <fgColor theme="0" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,86 +344,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="1"/>
-    <cellStyle name="常规 12" xfId="2"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3 2" xfId="4"/>
+    <cellStyle name="常规 11" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -713,29 +724,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="岗位名称&amp;岗位大类"/>
-      <sheetName val="在职员工"/>
-      <sheetName val="隐藏格式使用"/>
-      <sheetName val="离职"/>
-      <sheetName val="实习生"/>
-      <sheetName val="车补"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -744,7 +732,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -812,6 +800,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -847,6 +852,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1022,132 +1044,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" bestFit="1" width="7.25" customWidth="1" style="8"/>
-    <col min="5" max="5" bestFit="1" width="10.25" customWidth="1" style="9"/>
-    <col min="6" max="8" bestFit="1" width="10.25" customWidth="1" style="8"/>
-    <col min="9" max="14" bestFit="1" width="11.125" customWidth="1" style="8"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="8"/>
+    <col min="1" max="4" width="7.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="6" customFormat="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
-    <row r="2" ht="21.75" customHeight="1" s="6" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="7" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="10">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1155,48 +1181,44 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'H:\9月份月报\[12月25日入职信息.xlsx]隐藏格式使用'!#REF!</xm:f>
           </x14:formula1>
@@ -1209,208 +1231,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" bestFit="1" width="7.25" customWidth="1" style="5"/>
-    <col min="3" max="4" bestFit="1" width="8.25" customWidth="1" style="5"/>
-    <col min="5" max="5" bestFit="1" width="10.25" customWidth="1" style="5"/>
-    <col min="6" max="7" bestFit="1" width="11.625" customWidth="1" style="5"/>
+    <col min="1" max="2" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" ht="20.25" customHeight="1"/>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C8">
-    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="duplicateValues" dxfId="5" priority="133"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8 F3:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 F3:G3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" bestFit="1" width="9.25" customWidth="1" style="5"/>
-    <col min="5" max="5" bestFit="1" width="13.375" customWidth="1" style="5"/>
+    <col min="1" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" s="15" customFormat="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>